--- a/DNV_RP_C201_BucklingCheck.xlsx
+++ b/DNV_RP_C201_BucklingCheck.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lloydsregistergroup-my.sharepoint.com/personal/mano_sundar_lr_org/Documents/Documents/Programming/Other programs/002_Main_program/Nastran_plate_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="11_F25DC773A252ABDACC1048C451DC7F145BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C045963F-E53F-4ACB-9B36-E51830E16403}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="11_F25DC773A252ABDACC1048C451DC7F145BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57160383-E946-431A-8810-2B29B855F9D3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlateWd" sheetId="1" r:id="rId1"/>
-    <sheet name="axial_lateral_lds" sheetId="2" r:id="rId2"/>
-    <sheet name="line_lds" sheetId="3" r:id="rId3"/>
-    <sheet name="TorsionalBk" sheetId="4" r:id="rId4"/>
-    <sheet name="BucklingStr" sheetId="5" r:id="rId5"/>
-    <sheet name="ShearRs" sheetId="6" r:id="rId6"/>
-    <sheet name="Resist_param" sheetId="7" r:id="rId7"/>
+    <sheet name="Stiffener" sheetId="8" r:id="rId2"/>
+    <sheet name="axial_lateral_lds" sheetId="2" r:id="rId3"/>
+    <sheet name="line_lds" sheetId="3" r:id="rId4"/>
+    <sheet name="TorsionalBk" sheetId="4" r:id="rId5"/>
+    <sheet name="BucklingStr" sheetId="5" r:id="rId6"/>
+    <sheet name="ShearRs" sheetId="6" r:id="rId7"/>
+    <sheet name="Resist_param" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PlateWd!$A$1:$W$121</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">PlateWd!$A$1:$V$121</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,33 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
-  <si>
-    <r>
-      <t>a) Effective Plate Width (s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>The effective plate width for a continuous stiffener subjected to longitudinal and transverse stress and shear is calculated as follows:</t>
   </si>
@@ -492,14 +467,82 @@
     </r>
   </si>
   <si>
-    <t>1.3t/l *sqrt(E/fy)</t>
+    <t>1.3(t/l) sqrt(E/fy)</t>
+  </si>
+  <si>
+    <t>reduction factor due to stresses in transverse direction</t>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ys</t>
+    </r>
+  </si>
+  <si>
+    <t>Finally</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>The effective plate width Se</t>
+  </si>
+  <si>
+    <r>
+      <t>a) Effective Plate Width (s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -563,6 +606,23 @@
     <font>
       <b/>
       <u/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,11 +728,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -694,50 +754,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>274027</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19952</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22124</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E31CE58-CE4B-31D6-AC36-711A0EB70395}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="611065" y="1382760"/>
-          <a:ext cx="10196147" cy="4002672"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -797,8 +813,8 @@
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="166006" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -840,6 +856,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -873,7 +890,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -900,7 +917,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -989,8 +1006,8 @@
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="176843" cy="190052"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -1032,6 +1049,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1065,7 +1083,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1092,7 +1110,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6">
@@ -1181,8 +1199,8 @@
       <xdr:rowOff>5861</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="176843" cy="190052"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -1224,6 +1242,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1257,7 +1276,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1284,7 +1303,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -1577,8 +1596,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="166006" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -1620,6 +1639,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1653,7 +1673,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1680,7 +1700,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -1769,8 +1789,8 @@
       <xdr:rowOff>5862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="166006" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -1812,6 +1832,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1845,7 +1866,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1872,7 +1893,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -1961,8 +1982,8 @@
       <xdr:rowOff>13189</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="166006" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -2004,6 +2025,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2037,7 +2059,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2064,7 +2086,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -2145,7 +2167,157 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>137745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600808</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>137747</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6E0F4F-BB27-44E8-A576-010F6CF2590D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11274668"/>
+          <a:ext cx="6074020" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>86456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D283D5D-DDEB-4B69-8F19-1555540D610F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12293110"/>
+          <a:ext cx="13415596" cy="1467"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>62277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DA25B3-E944-BA29-5D62-11303D69070B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="990601"/>
+          <a:ext cx="11344275" cy="4443776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2411,200 +2583,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:U57"/>
+  <dimension ref="B2:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S6" s="3"/>
+      <c r="T6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T6" s="3"/>
-      <c r="U6" t="s">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S7" s="1"/>
+      <c r="T7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T7" s="1"/>
-      <c r="U7" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S8" s="2"/>
+      <c r="T8" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="T8" s="2"/>
-      <c r="U8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="3:17" ht="18" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="3">
         <v>4000</v>
       </c>
       <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
       <c r="L34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M34" s="3">
         <v>180</v>
       </c>
       <c r="N34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="3:17" ht="18" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3">
         <v>1000</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M35" s="5">
         <v>50</v>
       </c>
       <c r="N35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="3:17" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="3">
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M36" s="1">
         <f>+D37*D38*D39</f>
         <v>150828.75</v>
       </c>
       <c r="N36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="3:17" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="3">
         <v>1025</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M37" s="1">
         <f>+M36*10^-6</f>
         <v>0.15082874999999998</v>
       </c>
       <c r="N37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="3:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C38" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="3">
         <v>9.81</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D39" s="3">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="3:17" ht="18" x14ac:dyDescent="0.35">
       <c r="C40" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" s="3">
         <v>300</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="1">
@@ -2612,49 +2790,49 @@
         <v>2.1301408404140796</v>
       </c>
       <c r="P40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="3">
         <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="L41" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="1">
         <f>0.525*(D35/D36)*SQRT(D40/(D41*1000))</f>
         <v>1.0166581283794469</v>
       </c>
       <c r="P41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="3:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="C43" s="7" t="s">
-        <v>43</v>
+      <c r="C43" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="L43" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43" t="s">
         <v>38</v>
-      </c>
-      <c r="M43" t="s">
-        <v>39</v>
       </c>
       <c r="N43">
         <v>0.67300000000000004</v>
       </c>
       <c r="O43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P43" t="s">
         <v>40</v>
-      </c>
-      <c r="P43" t="s">
-        <v>41</v>
       </c>
       <c r="Q43" s="1">
         <f>+(M41-0.22)/(M41*M41)</f>
@@ -2663,7 +2841,7 @@
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1">
         <f>+D35/D36</f>
@@ -2672,29 +2850,29 @@
     </row>
     <row r="45" spans="3:17" ht="18" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="1">
         <f>1-((1/120)*D44)</f>
         <v>0.58333333333333326</v>
       </c>
       <c r="L45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M45" s="1">
         <f>+MIN(Q43,1)</f>
         <v>0.77076523380626771</v>
       </c>
       <c r="P45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="3:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="C48" s="7" t="s">
-        <v>46</v>
+      <c r="C48" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="L48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M48" s="1">
         <f>+(0.05*(D35/D36))-0.75</f>
@@ -2703,7 +2881,7 @@
     </row>
     <row r="49" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="1">
         <f>+MIN(M49,1)</f>
@@ -2711,10 +2889,10 @@
       </c>
       <c r="F49" s="4"/>
       <c r="G49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M49" s="1">
         <f>1-(M48*((M37/D40)-(2*(D36/D35)*(D36/D35))))</f>
@@ -2723,25 +2901,25 @@
     </row>
     <row r="50" spans="2:17" ht="18.75" x14ac:dyDescent="0.35">
       <c r="L50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M50" s="1">
         <f>2*(D36/D35)*(D36/D35)*D40</f>
         <v>0.24000000000000002</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" s="1">
         <f>0.21*(M40-0.2)</f>
@@ -2749,72 +2927,113 @@
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>61</v>
+      <c r="B52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>61</v>
+      <c r="B53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D53" s="1">
         <f>+(0.5/(M40*M40))*(1+D51+(M40*M40)-SQRT(POWER(1+D51+(M40*M40),2)-4*(M40*M40)))</f>
         <v>0.19829143395913887</v>
       </c>
       <c r="F53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" t="s">
         <v>54</v>
-      </c>
-      <c r="G53" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="D54" s="1">
         <f>+(0.5/(M40*M40))+0.07</f>
         <v>0.18019283746556469</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L55" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="M55" s="1">
+        <f>1.3*(D36/D34)*SQRT((D41*1000)/D40)</f>
+        <v>0.16782927833565472</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C56" s="6" t="s">
-        <v>61</v>
+      <c r="C56" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D56" s="1">
         <f>+MIN(D52:D54)</f>
         <v>0.18019283746556469</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="2:17" ht="18" x14ac:dyDescent="0.35">
       <c r="L57" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="M57" s="1">
+        <f>+(M55+(D56*(1-M55)))*D40*D49</f>
+        <v>95.334144578435925</v>
+      </c>
+      <c r="N57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L59" t="s">
+        <v>65</v>
+      </c>
+      <c r="M59" s="1">
+        <f>+SQRT((1-POWER(M35/M57,2)+D45*((M34*M35)/(M45*D40*M57))))</f>
+        <v>0.98137116201870878</v>
+      </c>
+      <c r="P59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="C60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="2">
+        <f>+D35*M45*M59</f>
+        <v>756.40677314407867</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2825,6 +3044,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D2B87D-559F-4FF2-B3F3-17125F61EA33}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1495212-AA11-407D-9CE4-451073AD4150}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2836,7 +3069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C433DA-3C29-4862-B86F-D09E31F81147}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2848,7 +3081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688D9DBA-595B-4886-AEC8-0EFE0483EF15}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2860,7 +3093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E04E6F-407B-4895-BC68-AE35B5150BA9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2872,7 +3105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B08919B-020E-4B7C-8FC1-6294BF537D6A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2884,7 +3117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8007FE-BB62-4128-A6FE-35288DFDA1E0}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/DNV_RP_C201_BucklingCheck.xlsx
+++ b/DNV_RP_C201_BucklingCheck.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lloydsregistergroup-my.sharepoint.com/personal/mano_sundar_lr_org/Documents/Documents/Programming/Other programs/002_Main_program/Nastran_plate_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="11_F25DC773A252ABDACC1048C451DC7F145BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57160383-E946-431A-8810-2B29B855F9D3}"/>
+  <xr:revisionPtr revIDLastSave="536" documentId="11_F25DC773A252ABDACC1048C451DC7F145BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37130701-D096-4F23-B6FB-42E01E4AEE1A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlateWd" sheetId="1" r:id="rId1"/>
-    <sheet name="Stiffener" sheetId="8" r:id="rId2"/>
-    <sheet name="axial_lateral_lds" sheetId="2" r:id="rId3"/>
-    <sheet name="line_lds" sheetId="3" r:id="rId4"/>
-    <sheet name="TorsionalBk" sheetId="4" r:id="rId5"/>
-    <sheet name="BucklingStr" sheetId="5" r:id="rId6"/>
-    <sheet name="ShearRs" sheetId="6" r:id="rId7"/>
-    <sheet name="Resist_param" sheetId="7" r:id="rId8"/>
+    <sheet name="axial_lateral_lds" sheetId="2" r:id="rId2"/>
+    <sheet name="TorsionalBk" sheetId="4" r:id="rId3"/>
+    <sheet name="Stiffener" sheetId="8" r:id="rId4"/>
+    <sheet name="BucklingStr" sheetId="5" r:id="rId5"/>
+    <sheet name="ShearRs" sheetId="6" r:id="rId6"/>
+    <sheet name="Resist_param" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">PlateWd!$A$1:$V$121</definedName>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="122">
   <si>
     <t>The effective plate width for a continuous stiffener subjected to longitudinal and transverse stress and shear is calculated as follows:</t>
   </si>
@@ -535,6 +534,657 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>The equivalent axial force should be taken as</t>
+  </si>
+  <si>
+    <t>Girder Length</t>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
+    <t>Effective plate width</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>Design shear stress</t>
+  </si>
+  <si>
+    <r>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sd</t>
+    </r>
+  </si>
+  <si>
+    <t>Area of stiffener + plate</t>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + st</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>KG - buckling factor for plate with stiffeners removed</t>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - buckling factor for plate between stiffeners</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
+    <t>l &gt;= s</t>
+  </si>
+  <si>
+    <t>l &lt; s</t>
+  </si>
+  <si>
+    <r>
+      <t>l &lt;= L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>l &gt; L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+  </si>
+  <si>
+    <t>material factor</t>
+  </si>
+  <si>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>crl</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>crg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>crl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;= τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>crl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>τ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>tf</t>
+    </r>
+  </si>
+  <si>
+    <t>Therfore</t>
+  </si>
+  <si>
+    <r>
+      <t>Therefore the equivalent axial force, N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sd</t>
+    </r>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>es</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>Second moment of area with plate</t>
+  </si>
+  <si>
+    <t>Section modulus of stiffener with plate</t>
+  </si>
+  <si>
+    <r>
+      <t>mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>b) Equivalent axial (Nsd) and lateral (qsd) loads</t>
+  </si>
+  <si>
+    <t>The equivalent lateral line load should be taken as</t>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>y1,Sd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>y2,Sd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>13.3 for continuous stiffeners</t>
+  </si>
+  <si>
+    <t>8.9 for simply supported stiffeners (sniped stiffeners)</t>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>ψ</t>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>sd</t>
+    </r>
+  </si>
+  <si>
+    <t>N/mm</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
     </r>
   </si>
 </sst>
@@ -721,7 +1371,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2"/>
@@ -733,6 +1383,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -2316,6 +2967,398 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600808</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600808</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC36B7B-B837-4141-AB6C-FE42E2A6F8FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5810983" y="5749290"/>
+          <a:ext cx="0" cy="10550183"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1318</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>186104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>5129</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>186104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FEE4FCB-5D4D-4A1B-878C-75A02B2B2E8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5821093" y="6510704"/>
+          <a:ext cx="8214361" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600808</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBE040C-E5CA-4214-93A2-0F7407A851E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8305798"/>
+          <a:ext cx="5810983" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601541</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>71070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>198560</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>71072</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D94BACD-6D28-4F01-807C-997301B15AEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5811716" y="9034095"/>
+          <a:ext cx="5978769" cy="2"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>143606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>145806</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>145073</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5AD3C43-E618-48DF-BBAD-8AC4B0D885C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="10459181"/>
+          <a:ext cx="12985506" cy="1467"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>77161</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC06C8A6-3B0B-F813-8FE4-35294D23EA02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="990599"/>
+          <a:ext cx="8468686" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>6213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>141854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EE9897-BA48-B5D2-4E42-E4CD198F7511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8867775" y="1949313"/>
+          <a:ext cx="4781550" cy="2802641"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>61704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79379C55-BB4B-A060-8D7F-C8C476C6DE67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838201" y="11001698"/>
+          <a:ext cx="6724649" cy="2995081"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -2585,8 +3628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T60"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="P67" sqref="P67"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,21 +4087,484 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D2B87D-559F-4FF2-B3F3-17125F61EA33}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1495212-AA11-407D-9CE4-451073AD4150}">
+  <dimension ref="B2:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S6" s="3"/>
+      <c r="T6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S7" s="1"/>
+      <c r="T7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="S8" s="2"/>
+      <c r="T8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="3">
+        <v>180</v>
+      </c>
+      <c r="N28" t="s">
+        <v>12</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M29" s="3">
+        <v>50</v>
+      </c>
+      <c r="N29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M30" s="5">
+        <v>50</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="C31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="C32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="1">
+        <v>756.41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="3">
+        <f>7600+20000</f>
+        <v>27600</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="C34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="3">
+        <v>300</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" t="s">
+        <v>85</v>
+      </c>
+      <c r="O35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="C36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G36" t="s">
+        <v>92</v>
+      </c>
+      <c r="L36" t="s">
+        <v>81</v>
+      </c>
+      <c r="M36" s="1">
+        <f>5.34 + (4*(D29/D28)*(D29/D28))</f>
+        <v>5.59</v>
+      </c>
+      <c r="O36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C37" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="3">
+        <v>665128696</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" t="s">
+        <v>105</v>
+      </c>
+      <c r="L37" t="s">
+        <v>82</v>
+      </c>
+      <c r="M37" s="1">
+        <f>5.34 *(D29/D28)*(D29/D28)+4</f>
+        <v>4.3337500000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C38" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1804044</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" t="s">
+        <v>106</v>
+      </c>
+      <c r="L38" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="1">
+        <f>+MAX(M37,M36)</f>
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="L40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="L42" t="s">
+        <v>84</v>
+      </c>
+      <c r="M42" s="1">
+        <f>5.34 + (4*(D28/D31)*(D28/D31))</f>
+        <v>12.451111111111111</v>
+      </c>
+      <c r="O42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="C43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="1">
+        <f>+M38*0.904*D35*1000*(D30/D29)^2</f>
+        <v>404.2688</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="L43" t="s">
+        <v>86</v>
+      </c>
+      <c r="M43" s="1">
+        <f>(5.34*(D28/D31)*(D28/D31)) + 4</f>
+        <v>13.493333333333332</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="C44" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="1">
+        <f>+M44*0.904*D35*1000*(D30/D28)^2</f>
+        <v>60.989866666666678</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" t="s">
+        <v>87</v>
+      </c>
+      <c r="M44" s="1">
+        <f>+MAX(M42:M43)</f>
+        <v>13.493333333333332</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="C46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="1">
+        <f>+D43/D36</f>
+        <v>351.53808695652174</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="L47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="C48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L48" t="s">
+        <v>101</v>
+      </c>
+      <c r="M48" s="2">
+        <f>+M28*D33*10^-6</f>
+        <v>4.968</v>
+      </c>
+      <c r="N48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="C50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="1">
+        <f>2*(1+SQRT(1+((10.9*D37)/(D29*D30^3))))</f>
+        <v>62.240778490985662</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="1">
+        <f>+(D38*D34*D73)/(D72*D35*1000*D30*D30*D29)</f>
+        <v>1.4456228967803053E-3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="1">
+        <f>+MIN(M29:M30)/MAX(M29:M30)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="C76" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="1">
+        <f>+(0.6+(0.4*D75))*D74*MAX(M29:M30)</f>
+        <v>7.2281144839015266E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="C78" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D78" s="2">
+        <f>+(M32+D76)*D29</f>
+        <v>222.28114483901527</v>
+      </c>
+      <c r="E78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1495212-AA11-407D-9CE4-451073AD4150}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688D9DBA-595B-4886-AEC8-0EFE0483EF15}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3070,10 +4576,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C433DA-3C29-4862-B86F-D09E31F81147}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D2B87D-559F-4FF2-B3F3-17125F61EA33}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -3082,7 +4590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688D9DBA-595B-4886-AEC8-0EFE0483EF15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E04E6F-407B-4895-BC68-AE35B5150BA9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3094,7 +4602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E04E6F-407B-4895-BC68-AE35B5150BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B08919B-020E-4B7C-8FC1-6294BF537D6A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3106,18 +4614,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B08919B-020E-4B7C-8FC1-6294BF537D6A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8007FE-BB62-4128-A6FE-35288DFDA1E0}">
   <dimension ref="A1"/>
   <sheetViews>
